--- a/Residue Chain Data Cooker.xlsx
+++ b/Residue Chain Data Cooker.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="4580" yWindow="0" windowWidth="20740" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -506,340 +511,340 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="148"/>
                 <c:pt idx="1">
-                  <c:v>9.9999999999909051E-3</c:v>
+                  <c:v>0.0099999999999909</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3999999999992951E-2</c:v>
+                  <c:v>0.0639999999999929</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8999999999991246E-2</c:v>
+                  <c:v>0.0189999999999912</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.700000000000216E-2</c:v>
+                  <c:v>0.0570000000000021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3999999999995794E-2</c:v>
+                  <c:v>0.0139999999999958</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4000000000000909E-2</c:v>
+                  <c:v>0.0240000000000009</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.0000000000002274E-3</c:v>
+                  <c:v>0.00600000000000023</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.600000000000648E-2</c:v>
+                  <c:v>0.0460000000000065</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.10600000000000875</c:v>
+                  <c:v>0.106000000000009</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.0000000000002274E-2</c:v>
+                  <c:v>0.0600000000000023</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.4000000000008299E-2</c:v>
+                  <c:v>0.0940000000000083</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.1999999999996476E-2</c:v>
+                  <c:v>0.0319999999999965</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.9999999999997158E-2</c:v>
+                  <c:v>0.0499999999999971</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.099999999999568E-2</c:v>
+                  <c:v>0.0109999999999957</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.1999999999996476E-2</c:v>
+                  <c:v>0.0319999999999965</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.4000000000006025E-2</c:v>
+                  <c:v>0.034000000000006</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.0000000000001137E-2</c:v>
+                  <c:v>0.0300000000000011</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.9000000000002615E-2</c:v>
+                  <c:v>0.0690000000000026</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.6999999999995907E-2</c:v>
+                  <c:v>0.0169999999999959</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.6000000000001364E-2</c:v>
+                  <c:v>0.0360000000000014</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.3000000000003524E-2</c:v>
+                  <c:v>0.0930000000000035</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.10699999999999932</c:v>
+                  <c:v>0.106999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.0000000000006253E-2</c:v>
+                  <c:v>0.0400000000000062</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.1999999999998749E-2</c:v>
+                  <c:v>0.0919999999999987</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.18600000000000705</c:v>
+                  <c:v>0.186000000000007</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.9999999999996021E-2</c:v>
+                  <c:v>0.019999999999996</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.4999999999991473E-2</c:v>
+                  <c:v>0.0249999999999915</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.6000000000002501E-2</c:v>
+                  <c:v>0.0660000000000025</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.4999999999987494E-2</c:v>
+                  <c:v>0.0449999999999875</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.900000000001171E-2</c:v>
+                  <c:v>0.0590000000000117</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.1000000000000796E-2</c:v>
+                  <c:v>0.0210000000000008</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4000000000006025E-2</c:v>
+                  <c:v>0.034000000000006</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.300000000000523E-2</c:v>
+                  <c:v>0.0130000000000052</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.0000000000010232E-2</c:v>
+                  <c:v>0.0200000000000102</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>7.5999999999993406E-2</c:v>
+                  <c:v>0.0759999999999934</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.9999999999954525E-3</c:v>
+                  <c:v>0.00499999999999545</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.10299999999999443</c:v>
+                  <c:v>0.102999999999994</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.7999999999996703E-2</c:v>
+                  <c:v>0.0379999999999967</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.0000000000001137E-2</c:v>
+                  <c:v>0.0300000000000011</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.9000000000005457E-2</c:v>
+                  <c:v>0.0190000000000055</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.9999999999996021E-2</c:v>
+                  <c:v>0.019999999999996</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.2980000000000018</c:v>
+                  <c:v>2.298000000000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7.0000000000050022E-3</c:v>
+                  <c:v>0.007000000000005</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>8.0000000000097771E-3</c:v>
+                  <c:v>0.00800000000000978</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.8000000000005798E-2</c:v>
+                  <c:v>0.0280000000000058</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.2000000000000455E-2</c:v>
+                  <c:v>0.0120000000000005</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.9000000000001478E-2</c:v>
+                  <c:v>0.0390000000000015</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.8000000000000682E-2</c:v>
+                  <c:v>0.0180000000000007</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>9.9999999999056399E-4</c:v>
+                  <c:v>0.000999999999990564</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.50000000000108E-2</c:v>
+                  <c:v>0.0350000000000108</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.6000000000005343E-2</c:v>
+                  <c:v>0.0160000000000053</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.15099999999999625</c:v>
+                  <c:v>0.150999999999996</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>8.2999999999998408E-2</c:v>
+                  <c:v>0.0829999999999984</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.299999999998704E-2</c:v>
+                  <c:v>0.032999999999987</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>3.847999999999999</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>8.7999999999993861E-2</c:v>
+                  <c:v>0.0879999999999938</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.16600000000001103</c:v>
+                  <c:v>0.166000000000011</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.12400000000000944</c:v>
+                  <c:v>0.124000000000009</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7.5000000000002842E-2</c:v>
+                  <c:v>0.0750000000000028</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.25900000000000034</c:v>
+                  <c:v>0.259</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.25799999999999557</c:v>
+                  <c:v>0.257999999999996</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3.3000000000001251E-2</c:v>
+                  <c:v>0.0330000000000012</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>9.1999999999998749E-2</c:v>
+                  <c:v>0.0919999999999987</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5.5000000000006821E-2</c:v>
+                  <c:v>0.0550000000000068</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.8999999999996362E-2</c:v>
+                  <c:v>0.0289999999999964</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>7.5000000000002842E-2</c:v>
+                  <c:v>0.0750000000000028</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3.0000000000001137E-3</c:v>
+                  <c:v>0.00300000000000011</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5.8000000000006935E-2</c:v>
+                  <c:v>0.0580000000000069</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>6.0000000000002274E-2</c:v>
+                  <c:v>0.0600000000000023</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.5000000000000568E-2</c:v>
+                  <c:v>0.0150000000000006</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>8.7000000000003297E-2</c:v>
+                  <c:v>0.0870000000000033</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.2999999999996135E-2</c:v>
+                  <c:v>0.0229999999999961</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.31000000000000227</c:v>
+                  <c:v>0.310000000000002</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.18300000000000693</c:v>
+                  <c:v>0.183000000000007</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.12100000000000932</c:v>
+                  <c:v>0.121000000000009</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.12900000000000489</c:v>
+                  <c:v>0.129000000000005</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>5.7999999999992724E-2</c:v>
+                  <c:v>0.0579999999999927</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.59599999999998943</c:v>
+                  <c:v>0.595999999999989</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.23199999999999932</c:v>
+                  <c:v>0.231999999999999</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.27299999999999613</c:v>
+                  <c:v>0.272999999999996</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>6.6999999999993065E-2</c:v>
+                  <c:v>0.0669999999999931</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.47800000000000864</c:v>
+                  <c:v>0.478000000000009</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.39700000000000557</c:v>
+                  <c:v>0.397000000000005</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.17000000000000171</c:v>
+                  <c:v>0.170000000000002</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.37700000000000955</c:v>
+                  <c:v>0.377000000000009</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.11999999999999034</c:v>
+                  <c:v>0.11999999999999</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.50400000000000489</c:v>
+                  <c:v>0.504000000000005</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.21099999999999852</c:v>
+                  <c:v>0.210999999999999</c:v>
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>0.242999999999995</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.66899999999999693</c:v>
+                  <c:v>0.668999999999997</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.23000000000000398</c:v>
+                  <c:v>0.230000000000004</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>2.2000000000005571E-2</c:v>
+                  <c:v>0.0220000000000056</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.12599999999999056</c:v>
+                  <c:v>0.125999999999991</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.33799999999999386</c:v>
+                  <c:v>0.337999999999994</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.56699999999999307</c:v>
+                  <c:v>0.566999999999993</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>5.9999999999988063E-2</c:v>
+                  <c:v>0.0599999999999881</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>6.0999999999992838E-2</c:v>
+                  <c:v>0.0609999999999928</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.18199999999998795</c:v>
+                  <c:v>0.181999999999988</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1.0000000000005116E-2</c:v>
+                  <c:v>0.0100000000000051</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2.199999999999136E-2</c:v>
+                  <c:v>0.0219999999999914</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.23700000000000898</c:v>
+                  <c:v>0.237000000000009</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.13299999999999557</c:v>
+                  <c:v>0.132999999999996</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.23000000000000398</c:v>
+                  <c:v>0.230000000000004</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.22799999999999443</c:v>
+                  <c:v>0.227999999999994</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.73300000000000409</c:v>
+                  <c:v>0.733000000000004</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.4719999999999942</c:v>
+                  <c:v>0.471999999999994</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.10900000000000887</c:v>
+                  <c:v>0.109000000000009</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.12400000000000944</c:v>
+                  <c:v>0.124000000000009</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.1039999999999992</c:v>
+                  <c:v>0.103999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -855,12 +860,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="96380800"/>
-        <c:axId val="96382976"/>
+        <c:axId val="-2042856248"/>
+        <c:axId val="-2042849016"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="96380800"/>
+        <c:axId val="-2042856248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -901,7 +906,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96382976"/>
+        <c:crossAx val="-2042849016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -911,10 +916,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96382976"/>
+        <c:axId val="-2042849016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -958,7 +963,7 @@
         <c:spPr>
           <a:ln w="12700"/>
         </c:spPr>
-        <c:crossAx val="96380800"/>
+        <c:crossAx val="-2042856248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1053,340 +1058,340 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="148"/>
                 <c:pt idx="1">
-                  <c:v>6.0000000000002274E-3</c:v>
+                  <c:v>0.00600000000000023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9999999999995595E-3</c:v>
+                  <c:v>0.00399999999999956</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.9999999999996732E-3</c:v>
+                  <c:v>0.00699999999999967</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3999999999999346E-2</c:v>
+                  <c:v>0.0139999999999993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1999999999998678E-2</c:v>
+                  <c:v>0.0119999999999987</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0999999999998806E-2</c:v>
+                  <c:v>0.0309999999999988</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0000000000000675E-2</c:v>
+                  <c:v>0.0100000000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0000000000007816E-3</c:v>
+                  <c:v>0.00500000000000078</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4000000000000234E-2</c:v>
+                  <c:v>0.0140000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1999999999998678E-2</c:v>
+                  <c:v>0.0119999999999987</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2000000000000455E-2</c:v>
+                  <c:v>0.0120000000000005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.0000000000002274E-3</c:v>
+                  <c:v>0.00600000000000023</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.7000000000000348E-2</c:v>
+                  <c:v>0.0170000000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.9999999999944578E-4</c:v>
+                  <c:v>0.000999999999999445</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.8000000000000682E-2</c:v>
+                  <c:v>0.0180000000000007</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.2000000000000455E-2</c:v>
+                  <c:v>0.0120000000000005</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.9999999999997868E-3</c:v>
+                  <c:v>0.00999999999999978</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.0000000000000071E-3</c:v>
+                  <c:v>0.00800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.3999999999999346E-2</c:v>
+                  <c:v>0.0139999999999993</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.2999999999999901E-2</c:v>
+                  <c:v>0.0129999999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.1000000000001009E-2</c:v>
+                  <c:v>0.011000000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.4000000000000909E-2</c:v>
+                  <c:v>0.0240000000000009</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.1000000000000583E-2</c:v>
+                  <c:v>0.0310000000000006</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.0999999999999233E-2</c:v>
+                  <c:v>0.0109999999999992</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.1000000000000583E-2</c:v>
+                  <c:v>0.0310000000000006</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.5000000000000568E-2</c:v>
+                  <c:v>0.0150000000000006</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.0000000000014495E-3</c:v>
+                  <c:v>0.00700000000000145</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.0000000000004476E-3</c:v>
+                  <c:v>0.00400000000000045</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.9999999999996732E-3</c:v>
+                  <c:v>0.00699999999999967</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.4000000000000021E-2</c:v>
+                  <c:v>0.024</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.0999999999999019E-2</c:v>
+                  <c:v>0.020999999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.000000000000334E-3</c:v>
+                  <c:v>0.00100000000000033</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.9999999999995595E-3</c:v>
+                  <c:v>0.00399999999999956</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.699999999999946E-2</c:v>
+                  <c:v>0.0169999999999995</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.6000000000000014E-2</c:v>
+                  <c:v>0.016</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7.0000000000014495E-3</c:v>
+                  <c:v>0.00700000000000145</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.9999999999992255E-3</c:v>
+                  <c:v>0.00299999999999922</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.9999999999997797E-3</c:v>
+                  <c:v>0.00199999999999978</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9.0000000000003411E-3</c:v>
+                  <c:v>0.00900000000000034</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.5999999999999588E-2</c:v>
+                  <c:v>0.0359999999999996</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.88799999999999901</c:v>
+                  <c:v>0.887999999999999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.9999999999995595E-3</c:v>
+                  <c:v>0.00399999999999956</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7.0000000000005613E-3</c:v>
+                  <c:v>0.00700000000000056</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>9.0000000000003411E-3</c:v>
+                  <c:v>0.00900000000000034</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.9999999999995595E-3</c:v>
+                  <c:v>0.00399999999999956</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6.0000000000002274E-3</c:v>
+                  <c:v>0.00600000000000023</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.9999999999995595E-3</c:v>
+                  <c:v>0.00399999999999956</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.3999999999999346E-2</c:v>
+                  <c:v>0.0139999999999993</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4.9999999999990052E-3</c:v>
+                  <c:v>0.004999999999999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.1000000000000121E-2</c:v>
+                  <c:v>0.0110000000000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.6000000000000014E-2</c:v>
+                  <c:v>0.016</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.700000000000081E-2</c:v>
+                  <c:v>0.0370000000000008</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.2999999999999687E-2</c:v>
+                  <c:v>0.0229999999999997</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.8000000000000469E-2</c:v>
+                  <c:v>0.0280000000000005</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.0000000000004476E-3</c:v>
+                  <c:v>0.00400000000000045</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>9.7999999999998977E-2</c:v>
+                  <c:v>0.097999999999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.11799999999999855</c:v>
+                  <c:v>0.117999999999999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.0000000000000462E-2</c:v>
+                  <c:v>0.0200000000000005</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.2999999999999901E-2</c:v>
+                  <c:v>0.0129999999999999</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.14400000000000013</c:v>
+                  <c:v>0.144</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3.1000000000000583E-2</c:v>
+                  <c:v>0.0310000000000006</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.9999999999999574E-2</c:v>
+                  <c:v>0.0199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.3999999999999346E-2</c:v>
+                  <c:v>0.0139999999999993</c:v>
                 </c:pt>
                 <c:pt idx="68" formatCode="0.0000">
-                  <c:v>1.0000000000012221E-3</c:v>
+                  <c:v>0.00100000000000122</c:v>
                 </c:pt>
                 <c:pt idx="69" formatCode="0.0000">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="70" formatCode="0.0000">
-                  <c:v>9.9999999999997868E-3</c:v>
+                  <c:v>0.00999999999999978</c:v>
                 </c:pt>
                 <c:pt idx="71" formatCode="0.0000">
-                  <c:v>9.9999999999997868E-3</c:v>
+                  <c:v>0.00999999999999978</c:v>
                 </c:pt>
                 <c:pt idx="72" formatCode="0.0000">
-                  <c:v>6.9999999999996732E-3</c:v>
+                  <c:v>0.00699999999999967</c:v>
                 </c:pt>
                 <c:pt idx="73" formatCode="0.0000">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="74" formatCode="0.0000">
-                  <c:v>8.0000000000000071E-3</c:v>
+                  <c:v>0.00800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="75" formatCode="0.0000">
-                  <c:v>2.0000000000000462E-2</c:v>
+                  <c:v>0.0200000000000005</c:v>
                 </c:pt>
                 <c:pt idx="76" formatCode="0.0000">
-                  <c:v>3.0000000000001137E-3</c:v>
+                  <c:v>0.00300000000000011</c:v>
                 </c:pt>
                 <c:pt idx="77" formatCode="0.0000">
-                  <c:v>3.6999999999999034E-2</c:v>
+                  <c:v>0.036999999999999</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.4999999999998579E-2</c:v>
+                  <c:v>0.0249999999999986</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.9000000000000128E-2</c:v>
+                  <c:v>0.0190000000000001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.5999999999999801E-2</c:v>
+                  <c:v>0.0259999999999998</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>6.0000000000002274E-3</c:v>
+                  <c:v>0.00600000000000023</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3.9999999999995595E-3</c:v>
+                  <c:v>0.00399999999999956</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>7.5000000000001066E-2</c:v>
+                  <c:v>0.0750000000000011</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.1000000000000583E-2</c:v>
+                  <c:v>0.0310000000000006</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.3000000000000576E-2</c:v>
+                  <c:v>0.0230000000000006</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>8.4000000000001407E-2</c:v>
+                  <c:v>0.0840000000000014</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4.8000000000000043E-2</c:v>
+                  <c:v>0.048</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.12800000000000011</c:v>
+                  <c:v>0.128</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>3.2999999999999474E-2</c:v>
+                  <c:v>0.0329999999999995</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>9.9999999999944578E-4</c:v>
+                  <c:v>0.000999999999999445</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1.9999999999999574E-2</c:v>
+                  <c:v>0.0199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>6.7999999999999616E-2</c:v>
+                  <c:v>0.0679999999999996</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>3.2999999999999474E-2</c:v>
+                  <c:v>0.0329999999999995</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>7.6999999999999957E-2</c:v>
+                  <c:v>0.0769999999999999</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>3.2999999999999474E-2</c:v>
+                  <c:v>0.0329999999999995</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>4.8999999999999488E-2</c:v>
+                  <c:v>0.0489999999999995</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>3.8000000000000256E-2</c:v>
+                  <c:v>0.0380000000000002</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>4.1999999999999815E-2</c:v>
+                  <c:v>0.0419999999999998</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>9.2999999999999972E-2</c:v>
+                  <c:v>0.0929999999999999</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2.2999999999999687E-2</c:v>
+                  <c:v>0.0229999999999997</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1.0999999999999233E-2</c:v>
+                  <c:v>0.0109999999999992</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1.6000000000000014E-2</c:v>
+                  <c:v>0.016</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1.4000000000001123E-2</c:v>
+                  <c:v>0.0140000000000011</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>6.9999999999996732E-3</c:v>
+                  <c:v>0.00699999999999967</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1.0000000000000675E-2</c:v>
+                  <c:v>0.0100000000000007</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>3.5999999999999588E-2</c:v>
+                  <c:v>0.0359999999999996</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>8.3000000000000185E-2</c:v>
+                  <c:v>0.0830000000000002</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>1.699999999999946E-2</c:v>
+                  <c:v>0.0169999999999995</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>6.4999999999999503E-2</c:v>
+                  <c:v>0.0649999999999995</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>4.0000000000000924E-2</c:v>
+                  <c:v>0.0400000000000009</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>9.8999999999998423E-2</c:v>
+                  <c:v>0.0989999999999984</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.10999999999999943</c:v>
+                  <c:v>0.109999999999999</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>9.0000000000003411E-3</c:v>
+                  <c:v>0.00900000000000034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1402,12 +1407,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="96965376"/>
-        <c:axId val="96967296"/>
+        <c:axId val="2090638568"/>
+        <c:axId val="2090460088"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="96965376"/>
+        <c:axId val="2090638568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1437,7 +1442,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96967296"/>
+        <c:crossAx val="2090460088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1445,7 +1450,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96967296"/>
+        <c:axId val="2090460088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1488,7 +1493,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96965376"/>
+        <c:crossAx val="2090638568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1583,445 +1588,445 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="148"/>
                 <c:pt idx="1">
-                  <c:v>6.3245553203363997E-3</c:v>
+                  <c:v>0.0063245553203364</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3410443691390691E-2</c:v>
+                  <c:v>0.0134104436913907</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.964923100694828E-3</c:v>
+                  <c:v>0.00796492310069483</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8054362353735774E-2</c:v>
+                  <c:v>0.0180543623537358</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2322337440598012E-2</c:v>
+                  <c:v>0.012322337440598</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.136941185294885E-2</c:v>
+                  <c:v>0.0313694118529488</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.6925824035672771E-2</c:v>
+                  <c:v>0.0269258240356728</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.1419840528737467E-3</c:v>
+                  <c:v>0.00514198405287375</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.2000000000012957E-3</c:v>
+                  <c:v>0.00920000000000129</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.5405511213122258E-2</c:v>
+                  <c:v>0.0254055112131223</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6970562748476529E-2</c:v>
+                  <c:v>0.0169705627484765</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.2303362975122684E-2</c:v>
+                  <c:v>0.0223033629751227</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.772684879784165E-3</c:v>
+                  <c:v>0.00877268487978416</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.9723082923316031E-2</c:v>
+                  <c:v>0.019723082923316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.4166091947178986E-3</c:v>
+                  <c:v>0.0024166091947179</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.9103926298015692E-2</c:v>
+                  <c:v>0.0191039262980157</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.3792751719654325E-2</c:v>
+                  <c:v>0.0137927517196543</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.1661903789690536E-2</c:v>
+                  <c:v>0.0116619037896905</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.5951175505272787E-2</c:v>
+                  <c:v>0.0159511755052728</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.4406942770760774E-2</c:v>
+                  <c:v>0.0144069427707608</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.4860686390607983E-2</c:v>
+                  <c:v>0.014860686390608</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.160925727553005E-2</c:v>
+                  <c:v>0.02160925727553</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.2155248405198768E-2</c:v>
+                  <c:v>0.0321552484051988</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.2015621187165125E-2</c:v>
+                  <c:v>0.0320156211871651</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.1437350582569056E-2</c:v>
+                  <c:v>0.0214373505825691</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.8423547990622713E-2</c:v>
+                  <c:v>0.0484235479906227</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.5524174696260367E-2</c:v>
+                  <c:v>0.0155241746962604</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.6023252670428142E-3</c:v>
+                  <c:v>0.00860232526704281</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.3792751719653941E-2</c:v>
+                  <c:v>0.0137927517196539</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.1401754250989205E-2</c:v>
+                  <c:v>0.0114017542509892</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.6743971283264126E-2</c:v>
+                  <c:v>0.0267439712832641</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.1415881957088767E-2</c:v>
+                  <c:v>0.0214158819570888</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.8731361109770741E-3</c:v>
+                  <c:v>0.00687313611097707</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.7707441767508253E-3</c:v>
+                  <c:v>0.00477074417675082</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.7464249196572926E-2</c:v>
+                  <c:v>0.0174642491965729</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.2068982758613059E-2</c:v>
+                  <c:v>0.0220689827586131</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7.0710678118667816E-3</c:v>
+                  <c:v>0.00707106781186678</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.0817300497421597E-2</c:v>
+                  <c:v>0.0208173004974216</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7.8587530817547067E-3</c:v>
+                  <c:v>0.0078587530817547</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6.0000000000002274E-3</c:v>
+                  <c:v>0.00600000000000023</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9.7693397934565888E-3</c:v>
+                  <c:v>0.00976933979345659</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.622154055254917E-2</c:v>
+                  <c:v>0.0362215405525492</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.99988807373625499</c:v>
+                  <c:v>0.999888073736255</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.2379240200833331E-3</c:v>
+                  <c:v>0.00423792402008333</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7.1805292284074793E-3</c:v>
+                  <c:v>0.00718052922840748</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.0600000000000902E-2</c:v>
+                  <c:v>0.0106000000000009</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.6647615158759096E-3</c:v>
+                  <c:v>0.00466476151587591</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>9.8407316801144076E-3</c:v>
+                  <c:v>0.0098407316801144</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.3814496188292482E-3</c:v>
+                  <c:v>0.00538144961882925</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.400142849854903E-2</c:v>
+                  <c:v>0.014001428498549</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>8.6023252670438064E-3</c:v>
+                  <c:v>0.0086023252670438</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.1456002793296163E-2</c:v>
+                  <c:v>0.0114560027932962</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.4176600181995212E-2</c:v>
+                  <c:v>0.0341766001819952</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4.0553174968182816E-2</c:v>
+                  <c:v>0.0405531749681828</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.3928226010299036E-2</c:v>
+                  <c:v>0.023928226010299</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.77010918706375642</c:v>
+                  <c:v>0.770109187063756</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.8048822676284468E-2</c:v>
+                  <c:v>0.0180488226762845</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.10347096211014928</c:v>
+                  <c:v>0.103470962110149</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.1205779415979546</c:v>
+                  <c:v>0.120577941597955</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.5000000000000709E-2</c:v>
+                  <c:v>0.0250000000000007</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5.3406366661663138E-2</c:v>
+                  <c:v>0.0534063666616631</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.15296587854812571</c:v>
+                  <c:v>0.152965878548126</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3.1694794525285057E-2</c:v>
+                  <c:v>0.0316947945252851</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.7176460402340362E-2</c:v>
+                  <c:v>0.0271764604023404</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.7804493814765184E-2</c:v>
+                  <c:v>0.0178044938147652</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5.8855755878243557E-3</c:v>
+                  <c:v>0.00588557558782435</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.5000000000000568E-2</c:v>
+                  <c:v>0.0150000000000006</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.0017983829094343E-2</c:v>
+                  <c:v>0.0100179838290943</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.5315351775262229E-2</c:v>
+                  <c:v>0.0153153517752622</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.3892443989450033E-2</c:v>
+                  <c:v>0.01389244398945</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.0000000000001137E-3</c:v>
+                  <c:v>0.00300000000000011</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.9150979087243114E-2</c:v>
+                  <c:v>0.0191509790872431</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.0522183119736831E-2</c:v>
+                  <c:v>0.0205221831197368</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.517935662402836E-2</c:v>
+                  <c:v>0.0251793566240284</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>7.2201108024738683E-2</c:v>
+                  <c:v>0.0722011080247387</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4.4323357273564359E-2</c:v>
+                  <c:v>0.0443233572735644</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.0767515336797918E-2</c:v>
+                  <c:v>0.0307675153367979</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.662840427864747E-2</c:v>
+                  <c:v>0.0366284042786475</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.3059862173850419E-2</c:v>
+                  <c:v>0.0130598621738504</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.11926709521070551</c:v>
+                  <c:v>0.119267095210706</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>8.8192743465662457E-2</c:v>
+                  <c:v>0.0881927434656624</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>6.2786622779059803E-2</c:v>
+                  <c:v>0.0627866227790598</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.6618790355686515E-2</c:v>
+                  <c:v>0.0266187903556865</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.1272609916667341</c:v>
+                  <c:v>0.127260991666734</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>9.2781248105423653E-2</c:v>
+                  <c:v>0.0927812481054236</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.13243866504914664</c:v>
+                  <c:v>0.132438665049147</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>8.2305285370990924E-2</c:v>
+                  <c:v>0.0823052853709909</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2.4020824298926675E-2</c:v>
+                  <c:v>0.0240208242989267</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.10276497457791824</c:v>
+                  <c:v>0.102764974577918</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>8.0030244283020413E-2</c:v>
+                  <c:v>0.0800302442830204</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>4.8599999999998998E-2</c:v>
+                  <c:v>0.048599999999999</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.13780943363935505</c:v>
+                  <c:v>0.137809433639355</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>8.9693923985964985E-2</c:v>
+                  <c:v>0.089693923985965</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>3.3292041090927045E-2</c:v>
+                  <c:v>0.033292041090927</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>5.5100272231631081E-2</c:v>
+                  <c:v>0.0551002722316311</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>7.754843647682301E-2</c:v>
+                  <c:v>0.077548436476823</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.12092791241065758</c:v>
+                  <c:v>0.120927912410658</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>9.3770997648526366E-2</c:v>
+                  <c:v>0.0937709976485263</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2.6035360569808721E-2</c:v>
+                  <c:v>0.0260353605698087</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>3.8025780728340182E-2</c:v>
+                  <c:v>0.0380257807283402</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1.6124515496597241E-2</c:v>
+                  <c:v>0.0161245154965972</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1.4675149062275867E-2</c:v>
+                  <c:v>0.0146751490622759</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>4.7914089785783945E-2</c:v>
+                  <c:v>0.0479140897857839</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2.8417600180169443E-2</c:v>
+                  <c:v>0.0284176001801694</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>5.841232746604131E-2</c:v>
+                  <c:v>0.0584123274660413</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>9.4701425543652351E-2</c:v>
+                  <c:v>0.0947014255436523</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.14758238377259061</c:v>
+                  <c:v>0.147582383772591</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.11461396075522265</c:v>
+                  <c:v>0.114613960755223</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>4.5554802161793563E-2</c:v>
+                  <c:v>0.0455548021617936</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.1020590025426458</c:v>
+                  <c:v>0.102059002542646</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.10999999999999943</c:v>
+                  <c:v>0.109999999999999</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>2.2663627247199409E-2</c:v>
+                  <c:v>0.0226636272471994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2037,12 +2042,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="96406912"/>
-        <c:axId val="96433664"/>
+        <c:axId val="2090819816"/>
+        <c:axId val="2090766744"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="96406912"/>
+        <c:axId val="2090819816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2072,7 +2077,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96433664"/>
+        <c:crossAx val="2090766744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2081,7 +2086,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96433664"/>
+        <c:axId val="2090766744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2119,7 +2124,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96406912"/>
+        <c:crossAx val="2090819816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2536,20 +2541,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59:K59"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="10" max="11" width="8.5703125" customWidth="1"/>
-    <col min="12" max="12" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.5" customWidth="1"/>
+    <col min="12" max="12" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="107"/>
       <c r="B1" s="107"/>
       <c r="C1" s="107"/>
@@ -2575,7 +2580,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -2597,7 +2602,7 @@
       </c>
       <c r="N2" s="112"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="15">
       <c r="A3" s="31">
         <v>2</v>
       </c>
@@ -2654,7 +2659,7 @@
         <v>6.3245553203363997E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="15">
       <c r="A4" s="31">
         <v>3</v>
       </c>
@@ -2711,7 +2716,7 @@
         <v>1.3410443691390691E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="15">
       <c r="A5" s="31">
         <v>4</v>
       </c>
@@ -2768,7 +2773,7 @@
         <v>7.964923100694828E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="15">
       <c r="A6" s="31">
         <v>5</v>
       </c>
@@ -2825,7 +2830,7 @@
         <v>1.8054362353735774E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="15">
       <c r="A7" s="31">
         <v>6</v>
       </c>
@@ -2882,7 +2887,7 @@
         <v>1.2322337440598012E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="15">
       <c r="A8" s="31">
         <v>7</v>
       </c>
@@ -2941,7 +2946,7 @@
         <v>3.136941185294885E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="15">
       <c r="A9" s="31">
         <v>8</v>
       </c>
@@ -2998,7 +3003,7 @@
         <v>2.6925824035672771E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="15">
       <c r="A10" s="31">
         <v>9</v>
       </c>
@@ -3054,7 +3059,7 @@
         <v>5.1419840528737467E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="15">
       <c r="A11" s="31">
         <v>10</v>
       </c>
@@ -3111,7 +3116,7 @@
         <v>9.2000000000012957E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="15">
       <c r="A12" s="31">
         <v>11</v>
       </c>
@@ -3168,7 +3173,7 @@
         <v>2.5405511213122258E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="15">
       <c r="A13" s="31">
         <v>12</v>
       </c>
@@ -3222,7 +3227,7 @@
         <v>1.6970562748476529E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="15">
       <c r="A14" s="31">
         <v>13</v>
       </c>
@@ -3278,7 +3283,7 @@
         <v>2.2303362975122684E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="15">
       <c r="A15" s="31">
         <v>14</v>
       </c>
@@ -3337,7 +3342,7 @@
         <v>8.772684879784165E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="15">
       <c r="A16" s="31">
         <v>15</v>
       </c>
@@ -3394,7 +3399,7 @@
         <v>1.9723082923316031E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="15">
       <c r="A17" s="31">
         <v>16</v>
       </c>
@@ -3450,7 +3455,7 @@
         <v>2.4166091947178986E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="15">
       <c r="A18" s="31">
         <v>17</v>
       </c>
@@ -3509,7 +3514,7 @@
         <v>1.9103926298015692E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="15">
       <c r="A19" s="31">
         <v>18</v>
       </c>
@@ -3561,7 +3566,7 @@
         <v>1.3792751719654325E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="15">
       <c r="A20" s="31">
         <v>19</v>
       </c>
@@ -3617,7 +3622,7 @@
         <v>1.1661903789690536E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="15">
       <c r="A21" s="31">
         <v>20</v>
       </c>
@@ -3676,7 +3681,7 @@
         <v>1.5951175505272787E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="15">
       <c r="A22" s="31">
         <v>21</v>
       </c>
@@ -3732,7 +3737,7 @@
         <v>1.4406942770760774E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="15">
       <c r="A23" s="31">
         <v>22</v>
       </c>
@@ -3789,7 +3794,7 @@
         <v>1.4860686390607983E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="15">
       <c r="A24" s="31">
         <v>23</v>
       </c>
@@ -3846,7 +3851,7 @@
         <v>2.160925727553005E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="15">
       <c r="A25" s="31">
         <v>24</v>
       </c>
@@ -3903,7 +3908,7 @@
         <v>3.2155248405198768E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="15">
       <c r="A26" s="31">
         <v>25</v>
       </c>
@@ -3960,7 +3965,7 @@
         <v>3.2015621187165125E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="15">
       <c r="A27" s="31">
         <v>26</v>
       </c>
@@ -4017,7 +4022,7 @@
         <v>2.1437350582569056E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="15">
       <c r="A28" s="31">
         <v>27</v>
       </c>
@@ -4072,7 +4077,7 @@
         <v>4.8423547990622713E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="15">
       <c r="A29" s="31">
         <v>28</v>
       </c>
@@ -4129,7 +4134,7 @@
         <v>1.5524174696260367E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="15">
       <c r="A30" s="31">
         <v>29</v>
       </c>
@@ -4186,7 +4191,7 @@
         <v>8.6023252670428142E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="15">
       <c r="A31" s="31">
         <v>30</v>
       </c>
@@ -4243,7 +4248,7 @@
         <v>1.3792751719653941E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="15">
       <c r="A32" s="31">
         <v>31</v>
       </c>
@@ -4300,7 +4305,7 @@
         <v>1.1401754250989205E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="15">
       <c r="A33" s="31">
         <v>32</v>
       </c>
@@ -4357,7 +4362,7 @@
         <v>2.6743971283264126E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="15">
       <c r="A34" s="31">
         <v>33</v>
       </c>
@@ -4416,7 +4421,7 @@
         <v>2.1415881957088767E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="15">
       <c r="A35" s="31">
         <v>34</v>
       </c>
@@ -4473,7 +4478,7 @@
         <v>6.8731361109770741E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="15">
       <c r="A36" s="31">
         <v>35</v>
       </c>
@@ -4532,7 +4537,7 @@
         <v>4.7707441767508253E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="15">
       <c r="A37" s="31">
         <v>36</v>
       </c>
@@ -4591,7 +4596,7 @@
         <v>1.7464249196572926E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="15">
       <c r="A38" s="31">
         <v>37</v>
       </c>
@@ -4648,7 +4653,7 @@
         <v>2.2068982758613059E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="15">
       <c r="A39" s="31">
         <v>38</v>
       </c>
@@ -4705,7 +4710,7 @@
         <v>7.0710678118667816E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="15">
       <c r="A40" s="31">
         <v>39</v>
       </c>
@@ -4758,7 +4763,7 @@
         <v>2.0817300497421597E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="15">
       <c r="A41" s="31">
         <v>40</v>
       </c>
@@ -4815,7 +4820,7 @@
         <v>7.8587530817547067E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="15">
       <c r="A42" s="31">
         <v>41</v>
       </c>
@@ -4872,7 +4877,7 @@
         <v>6.0000000000002274E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="15">
       <c r="A43" s="31">
         <v>42</v>
       </c>
@@ -4929,7 +4934,7 @@
         <v>9.7693397934565888E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="15">
       <c r="A44" s="31">
         <v>43</v>
       </c>
@@ -4977,7 +4982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="15">
       <c r="A45" s="31">
         <v>44</v>
       </c>
@@ -5037,7 +5042,7 @@
         <v>3.622154055254917E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="15">
       <c r="A46" s="31">
         <v>45</v>
       </c>
@@ -5097,7 +5102,7 @@
         <v>0.99988807373625499</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="15">
       <c r="A47" s="31">
         <v>46</v>
       </c>
@@ -5157,7 +5162,7 @@
         <v>4.2379240200833331E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="15">
       <c r="A48" s="31">
         <v>47</v>
       </c>
@@ -5217,7 +5222,7 @@
         <v>7.1805292284074793E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" ht="15">
       <c r="A49" s="31">
         <v>48</v>
       </c>
@@ -5277,7 +5282,7 @@
         <v>1.0600000000000902E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="15">
       <c r="A50" s="31">
         <v>49</v>
       </c>
@@ -5337,7 +5342,7 @@
         <v>4.6647615158759096E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="15">
       <c r="A51" s="31">
         <v>50</v>
       </c>
@@ -5397,7 +5402,7 @@
         <v>9.8407316801144076E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="15">
       <c r="A52" s="31">
         <v>51</v>
       </c>
@@ -5457,7 +5462,7 @@
         <v>5.3814496188292482E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="15">
       <c r="A53" s="31">
         <v>52</v>
       </c>
@@ -5517,7 +5522,7 @@
         <v>1.400142849854903E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" ht="15">
       <c r="A54" s="31">
         <v>53</v>
       </c>
@@ -5577,7 +5582,7 @@
         <v>8.6023252670438064E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="15">
       <c r="A55" s="31">
         <v>54</v>
       </c>
@@ -5637,7 +5642,7 @@
         <v>1.1456002793296163E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="15">
       <c r="A56" s="31">
         <v>55</v>
       </c>
@@ -5697,7 +5702,7 @@
         <v>3.4176600181995212E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="15">
       <c r="A57" s="31">
         <v>56</v>
       </c>
@@ -5757,7 +5762,7 @@
         <v>4.0553174968182816E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="15">
       <c r="A58" s="31">
         <v>57</v>
       </c>
@@ -5817,7 +5822,7 @@
         <v>2.3928226010299036E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="15">
       <c r="A59" s="31">
         <v>58</v>
       </c>
@@ -5877,7 +5882,7 @@
         <v>0.77010918706375642</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="15">
       <c r="A60" s="31">
         <v>59</v>
       </c>
@@ -5934,7 +5939,7 @@
         <v>1.8048822676284468E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="15">
       <c r="A61" s="31">
         <v>60</v>
       </c>
@@ -5991,7 +5996,7 @@
         <v>0.10347096211014928</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="15">
       <c r="A62" s="31">
         <v>61</v>
       </c>
@@ -6048,7 +6053,7 @@
         <v>0.1205779415979546</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="15">
       <c r="A63" s="31">
         <v>62</v>
       </c>
@@ -6105,7 +6110,7 @@
         <v>2.5000000000000709E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="15">
       <c r="A64" s="31">
         <v>63</v>
       </c>
@@ -6164,7 +6169,7 @@
         <v>5.3406366661663138E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" ht="15">
       <c r="A65" s="31">
         <v>64</v>
       </c>
@@ -6221,7 +6226,7 @@
         <v>0.15296587854812571</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" ht="15">
       <c r="A66" s="31">
         <v>65</v>
       </c>
@@ -6278,7 +6283,7 @@
         <v>3.1694794525285057E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="15">
       <c r="A67" s="31">
         <v>66</v>
       </c>
@@ -6307,7 +6312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" ht="15">
       <c r="A68" s="31">
         <v>67</v>
       </c>
@@ -6356,7 +6361,7 @@
         <v>2.7176460402340362E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" ht="15">
       <c r="A69" s="31">
         <v>68</v>
       </c>
@@ -6413,7 +6418,7 @@
         <v>1.7804493814765184E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" ht="15">
       <c r="A70" s="31">
         <v>69</v>
       </c>
@@ -6470,7 +6475,7 @@
         <v>5.8855755878243557E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" ht="15">
       <c r="A71" s="31">
         <v>70</v>
       </c>
@@ -6527,7 +6532,7 @@
         <v>1.5000000000000568E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" ht="15">
       <c r="A72" s="31">
         <v>71</v>
       </c>
@@ -6584,7 +6589,7 @@
         <v>1.0017983829094343E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" ht="15">
       <c r="A73" s="31">
         <v>72</v>
       </c>
@@ -6639,7 +6644,7 @@
         <v>1.5315351775262229E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" ht="15">
       <c r="A74" s="31">
         <v>73</v>
       </c>
@@ -6696,7 +6701,7 @@
         <v>1.3892443989450033E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" ht="15">
       <c r="A75" s="31">
         <v>74</v>
       </c>
@@ -6753,7 +6758,7 @@
         <v>3.0000000000001137E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" ht="15">
       <c r="A76" s="31">
         <v>75</v>
       </c>
@@ -6810,7 +6815,7 @@
         <v>1.9150979087243114E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" ht="15">
       <c r="A77" s="31">
         <v>76</v>
       </c>
@@ -6869,7 +6874,7 @@
         <v>2.0522183119736831E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" ht="15">
       <c r="A78" s="31">
         <v>77</v>
       </c>
@@ -6928,7 +6933,7 @@
         <v>2.517935662402836E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="15">
       <c r="A79" s="31">
         <v>78</v>
       </c>
@@ -6987,7 +6992,7 @@
         <v>7.2201108024738683E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" ht="15">
       <c r="A80" s="31">
         <v>79</v>
       </c>
@@ -7044,7 +7049,7 @@
         <v>4.4323357273564359E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" ht="15">
       <c r="A81" s="31">
         <v>80</v>
       </c>
@@ -7101,7 +7106,7 @@
         <v>3.0767515336797918E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" ht="15">
       <c r="A82" s="31">
         <v>81</v>
       </c>
@@ -7158,7 +7163,7 @@
         <v>3.662840427864747E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" ht="15">
       <c r="A83" s="31">
         <v>82</v>
       </c>
@@ -7215,7 +7220,7 @@
         <v>1.3059862173850419E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" ht="15">
       <c r="A84" s="31">
         <v>83</v>
       </c>
@@ -7274,7 +7279,7 @@
         <v>0.11926709521070551</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" ht="15">
       <c r="A85" s="31">
         <v>84</v>
       </c>
@@ -7333,7 +7338,7 @@
         <v>8.8192743465662457E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" ht="15">
       <c r="A86" s="31">
         <v>85</v>
       </c>
@@ -7390,7 +7395,7 @@
         <v>6.2786622779059803E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" ht="15">
       <c r="A87" s="31">
         <v>86</v>
       </c>
@@ -7423,7 +7428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" ht="15">
       <c r="A88" s="31">
         <v>87</v>
       </c>
@@ -7456,7 +7461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" ht="15">
       <c r="A89" s="31">
         <v>88</v>
       </c>
@@ -7489,7 +7494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" ht="15">
       <c r="A90" s="31">
         <v>89</v>
       </c>
@@ -7522,7 +7527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" ht="15">
       <c r="A91" s="31">
         <v>90</v>
       </c>
@@ -7555,7 +7560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" ht="15">
       <c r="A92" s="31">
         <v>91</v>
       </c>
@@ -7602,7 +7607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" ht="15">
       <c r="A93" s="31">
         <v>92</v>
       </c>
@@ -7635,7 +7640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" ht="15">
       <c r="A94" s="31">
         <v>93</v>
       </c>
@@ -7688,7 +7693,7 @@
         <v>2.6618790355686515E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" ht="15">
       <c r="A95" s="31">
         <v>94</v>
       </c>
@@ -7721,7 +7726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" ht="15">
       <c r="A96" s="31">
         <v>95</v>
       </c>
@@ -7776,7 +7781,7 @@
         <v>0.1272609916667341</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" ht="15">
       <c r="A97" s="31">
         <v>96</v>
       </c>
@@ -7831,7 +7836,7 @@
         <v>9.2781248105423653E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" ht="15">
       <c r="A98" s="31">
         <v>97</v>
       </c>
@@ -7888,7 +7893,7 @@
         <v>0.13243866504914664</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" ht="15">
       <c r="A99" s="31">
         <v>98</v>
       </c>
@@ -7920,7 +7925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" ht="15">
       <c r="A100" s="31">
         <v>99</v>
       </c>
@@ -7952,7 +7957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" ht="15">
       <c r="A101" s="31">
         <v>100</v>
       </c>
@@ -7984,7 +7989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" ht="15">
       <c r="A102" s="31">
         <v>101</v>
       </c>
@@ -8008,7 +8013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" ht="15">
       <c r="A103" s="31">
         <v>102</v>
       </c>
@@ -8064,7 +8069,7 @@
         <v>8.2305285370990924E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" ht="15">
       <c r="A104" s="31">
         <v>103</v>
       </c>
@@ -8123,7 +8128,7 @@
         <v>2.4020824298926675E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" ht="15">
       <c r="A105" s="31">
         <v>104</v>
       </c>
@@ -8178,7 +8183,7 @@
         <v>0.10276497457791824</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" ht="15">
       <c r="A106" s="31">
         <v>105</v>
       </c>
@@ -8227,7 +8232,7 @@
         <v>8.0030244283020413E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" ht="15">
       <c r="A107" s="31">
         <v>106</v>
       </c>
@@ -8270,7 +8275,7 @@
         <v>4.8599999999998998E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" ht="15">
       <c r="A108" s="31">
         <v>107</v>
       </c>
@@ -8302,7 +8307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" ht="15">
       <c r="A109" s="31">
         <v>108</v>
       </c>
@@ -8334,7 +8339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" ht="15">
       <c r="A110" s="31">
         <v>109</v>
       </c>
@@ -8366,7 +8371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" ht="15">
       <c r="A111" s="31">
         <v>110</v>
       </c>
@@ -8421,7 +8426,7 @@
         <v>0.13780943363935505</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" ht="15">
       <c r="A112" s="31">
         <v>111</v>
       </c>
@@ -8453,7 +8458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" ht="15">
       <c r="A113" s="31">
         <v>112</v>
       </c>
@@ -8509,7 +8514,7 @@
         <v>8.9693923985964985E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" ht="15">
       <c r="A114" s="31">
         <v>113</v>
       </c>
@@ -8565,7 +8570,7 @@
         <v>3.3292041090927045E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" ht="15">
       <c r="A115" s="31">
         <v>114</v>
       </c>
@@ -8621,7 +8626,7 @@
         <v>5.5100272231631081E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" ht="15">
       <c r="A116" s="31">
         <v>115</v>
       </c>
@@ -8678,7 +8683,7 @@
         <v>7.754843647682301E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" ht="15">
       <c r="A117" s="31">
         <v>116</v>
       </c>
@@ -8733,7 +8738,7 @@
         <v>0.12092791241065758</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" ht="15">
       <c r="A118" s="31">
         <v>117</v>
       </c>
@@ -8789,7 +8794,7 @@
         <v>9.3770997648526366E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" ht="15">
       <c r="A119" s="31">
         <v>118</v>
       </c>
@@ -8845,7 +8850,7 @@
         <v>2.6035360569808721E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" ht="15">
       <c r="A120" s="31">
         <v>119</v>
       </c>
@@ -8901,7 +8906,7 @@
         <v>3.8025780728340182E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" ht="15">
       <c r="A121" s="31">
         <v>120</v>
       </c>
@@ -8955,7 +8960,7 @@
         <v>1.6124515496597241E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" ht="15">
       <c r="A122" s="31">
         <v>121</v>
       </c>
@@ -9012,7 +9017,7 @@
         <v>1.4675149062275867E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" ht="15">
       <c r="A123" s="31">
         <v>122</v>
       </c>
@@ -9065,7 +9070,7 @@
         <v>4.7914089785783945E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" ht="15">
       <c r="A124" s="31">
         <v>123</v>
       </c>
@@ -9122,7 +9127,7 @@
         <v>2.8417600180169443E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" ht="15">
       <c r="A125" s="31">
         <v>124</v>
       </c>
@@ -9169,7 +9174,7 @@
         <v>5.841232746604131E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" ht="15">
       <c r="A126" s="31">
         <v>125</v>
       </c>
@@ -9202,7 +9207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" ht="15">
       <c r="A127" s="31">
         <v>126</v>
       </c>
@@ -9235,7 +9240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" ht="15">
       <c r="A128" s="31">
         <v>127</v>
       </c>
@@ -9268,7 +9273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" ht="15">
       <c r="A129" s="31">
         <v>128</v>
       </c>
@@ -9323,7 +9328,7 @@
         <v>9.4701425543652351E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" ht="15">
       <c r="A130" s="31">
         <v>129</v>
       </c>
@@ -9380,7 +9385,7 @@
         <v>0.14758238377259061</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" ht="15">
       <c r="A131" s="31">
         <v>130</v>
       </c>
@@ -9413,7 +9418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" ht="15">
       <c r="A132" s="31">
         <v>131</v>
       </c>
@@ -9446,7 +9451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" ht="15">
       <c r="A133" s="31">
         <v>132</v>
       </c>
@@ -9489,7 +9494,7 @@
         <v>0.11461396075522265</v>
       </c>
     </row>
-    <row r="134" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" ht="15">
       <c r="A134" s="31">
         <v>133</v>
       </c>
@@ -9546,7 +9551,7 @@
         <v>4.5554802161793563E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" ht="15">
       <c r="A135" s="31">
         <v>134</v>
       </c>
@@ -9579,7 +9584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" ht="15">
       <c r="A136" s="31">
         <v>135</v>
       </c>
@@ -9636,7 +9641,7 @@
         <v>0.1020590025426458</v>
       </c>
     </row>
-    <row r="137" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" ht="15">
       <c r="A137" s="31">
         <v>136</v>
       </c>
@@ -9669,7 +9674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" ht="15">
       <c r="A138" s="31">
         <v>137</v>
       </c>
@@ -9702,7 +9707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" ht="15">
       <c r="A139" s="31">
         <v>138</v>
       </c>
@@ -9735,7 +9740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" ht="15">
       <c r="A140" s="31">
         <v>139</v>
       </c>
@@ -9767,7 +9772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" ht="15">
       <c r="A141" s="31">
         <v>140</v>
       </c>
@@ -9799,7 +9804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" ht="15">
       <c r="A142" s="31">
         <v>141</v>
       </c>
@@ -9833,7 +9838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" ht="15">
       <c r="A143" s="31">
         <v>142</v>
       </c>
@@ -9862,7 +9867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" ht="15">
       <c r="A144" s="31">
         <v>143</v>
       </c>
@@ -9901,7 +9906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" ht="15">
       <c r="A145" s="31">
         <v>144</v>
       </c>
@@ -9952,7 +9957,7 @@
         <v>0.10999999999999943</v>
       </c>
     </row>
-    <row r="146" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" ht="15">
       <c r="A146" s="31">
         <v>145</v>
       </c>
@@ -9984,7 +9989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" ht="15">
       <c r="A147" s="31">
         <v>146</v>
       </c>
@@ -10016,7 +10021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" ht="15">
       <c r="A148" s="31">
         <v>147</v>
       </c>
@@ -10060,7 +10065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" ht="15">
       <c r="A149" s="31">
         <v>148</v>
       </c>
@@ -10118,6 +10123,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -10129,10 +10139,15 @@
       <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -10144,10 +10159,15 @@
       <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -10159,9 +10179,14 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Residue Chain Data Cooker.xlsx
+++ b/Residue Chain Data Cooker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4580" yWindow="0" windowWidth="20740" windowHeight="11760"/>
+    <workbookView xWindow="-19200" yWindow="0" windowWidth="19200" windowHeight="21160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="57">
   <si>
     <t>overlapping ca</t>
   </si>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>TYR</t>
-  </si>
-  <si>
-    <t>LYE</t>
   </si>
   <si>
     <t>14a</t>
@@ -206,7 +203,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +221,22 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -267,9 +280,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -417,7 +436,13 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="8">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -860,12 +885,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2042856248"/>
-        <c:axId val="-2042849016"/>
+        <c:axId val="2072084232"/>
+        <c:axId val="2072048008"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2042856248"/>
+        <c:axId val="2072084232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -906,7 +931,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2042849016"/>
+        <c:crossAx val="2072048008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -916,7 +941,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2042849016"/>
+        <c:axId val="2072048008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -963,7 +988,7 @@
         <c:spPr>
           <a:ln w="12700"/>
         </c:spPr>
-        <c:crossAx val="-2042856248"/>
+        <c:crossAx val="2072084232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1407,12 +1432,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2090638568"/>
-        <c:axId val="2090460088"/>
+        <c:axId val="-2146294520"/>
+        <c:axId val="-2146288952"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2090638568"/>
+        <c:axId val="-2146294520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1442,7 +1467,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090460088"/>
+        <c:crossAx val="-2146288952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1450,7 +1475,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2090460088"/>
+        <c:axId val="-2146288952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1493,7 +1518,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090638568"/>
+        <c:crossAx val="-2146294520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2042,12 +2067,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2090819816"/>
-        <c:axId val="2090766744"/>
+        <c:axId val="-2140776840"/>
+        <c:axId val="-2140771320"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2090819816"/>
+        <c:axId val="-2140776840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2077,7 +2102,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090766744"/>
+        <c:crossAx val="-2140771320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2086,7 +2111,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2090766744"/>
+        <c:axId val="-2140771320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2124,7 +2149,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090819816"/>
+        <c:crossAx val="-2140776840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2541,8 +2566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2571,13 +2596,13 @@
       <c r="N1" s="107"/>
       <c r="O1" s="107"/>
       <c r="Q1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" t="s">
         <v>53</v>
-      </c>
-      <c r="S1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15">
@@ -2922,7 +2947,7 @@
         <v>29.175999999999998</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M8" s="113">
         <v>7</v>
@@ -4196,7 +4221,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C31" s="63">
         <v>71</v>
@@ -4513,7 +4538,7 @@
         <v>68.298000000000002</v>
       </c>
       <c r="L36" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M36" s="113">
         <v>35</v>
@@ -4545,7 +4570,7 @@
         <v>15</v>
       </c>
       <c r="C37" s="62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D37" s="32">
         <v>118.761</v>
@@ -4572,7 +4597,7 @@
         <v>31.265000000000001</v>
       </c>
       <c r="L37" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M37" s="113">
         <v>36</v>
@@ -4718,7 +4743,7 @@
         <v>7</v>
       </c>
       <c r="C40" s="62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D40" s="32">
         <v>121.322</v>
@@ -4939,7 +4964,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C44" s="51"/>
       <c r="D44" s="114">
@@ -5050,7 +5075,7 @@
         <v>14</v>
       </c>
       <c r="C46" s="116" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D46" s="111">
         <v>122.904</v>
@@ -5710,7 +5735,7 @@
         <v>8</v>
       </c>
       <c r="C57" s="116" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D57" s="114">
         <v>121.998</v>
@@ -5827,7 +5852,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="117" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C59" s="51">
         <v>92</v>
@@ -6329,7 +6354,7 @@
         <v>8.1389999999999993</v>
       </c>
       <c r="F68" s="61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G68" s="58"/>
       <c r="H68" s="58"/>
@@ -6426,7 +6451,7 @@
         <v>7</v>
       </c>
       <c r="C70" s="62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D70" s="53">
         <v>118.761</v>
@@ -6597,7 +6622,7 @@
         <v>15</v>
       </c>
       <c r="C73" s="62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D73" s="56">
         <v>117.6</v>
@@ -6850,7 +6875,7 @@
         <v>31.751999999999999</v>
       </c>
       <c r="L77" s="67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M77" s="113">
         <v>76</v>
@@ -6968,7 +6993,7 @@
         <v>32.935000000000002</v>
       </c>
       <c r="L79" s="71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M79" s="113">
         <v>78</v>
@@ -7171,7 +7196,7 @@
         <v>13</v>
       </c>
       <c r="C83" s="62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D83" s="32">
         <v>121.998</v>
@@ -7587,7 +7612,7 @@
       <c r="J92" s="33"/>
       <c r="K92" s="33"/>
       <c r="L92" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M92" s="113">
         <v>91</v>
@@ -7648,7 +7673,7 @@
         <v>8</v>
       </c>
       <c r="C94" s="62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D94" s="79">
         <v>121.6</v>
@@ -7757,7 +7782,7 @@
         <v>32.406999999999996</v>
       </c>
       <c r="L96" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M96" s="113">
         <v>95</v>
@@ -8255,7 +8280,7 @@
       <c r="J107" s="97"/>
       <c r="K107" s="97"/>
       <c r="L107" s="97" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M107" s="113">
         <v>106</v>
@@ -8402,7 +8427,7 @@
       </c>
       <c r="K111" s="75"/>
       <c r="L111" s="74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M111" s="113">
         <v>110</v>
@@ -8691,7 +8716,7 @@
         <v>7</v>
       </c>
       <c r="C117" s="62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D117" s="84">
         <v>121.94499999999999</v>
@@ -8714,7 +8739,7 @@
         <v>32.241999999999997</v>
       </c>
       <c r="L117" s="83" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M117" s="113">
         <v>116</v>
@@ -8876,7 +8901,7 @@
         <v>57.661000000000001</v>
       </c>
       <c r="I120" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J120" s="77">
         <v>57.707999999999998</v>
@@ -9046,7 +9071,7 @@
       </c>
       <c r="K123" s="92"/>
       <c r="L123" s="87" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M123" s="113">
         <v>122</v>
@@ -9304,7 +9329,7 @@
         <v>29.55</v>
       </c>
       <c r="L129" s="99" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M129" s="113">
         <v>128</v>
@@ -9820,7 +9845,7 @@
       <c r="I142" s="108"/>
       <c r="J142" s="108"/>
       <c r="K142" s="108" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M142" s="113">
         <v>141</v>
@@ -9894,7 +9919,7 @@
       <c r="J144" s="109"/>
       <c r="K144" s="109"/>
       <c r="L144" s="105" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M144" s="113"/>
       <c r="N144" s="112"/>
@@ -9933,7 +9958,7 @@
       <c r="J145" s="108"/>
       <c r="K145" s="108"/>
       <c r="L145" s="107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M145" s="113">
         <v>144</v>
@@ -10123,6 +10148,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Residue Chain Data Cooker.xlsx
+++ b/Residue Chain Data Cooker.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-19200" yWindow="0" windowWidth="19200" windowHeight="21160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -203,7 +203,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,8 +238,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,6 +278,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -280,7 +293,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -289,8 +302,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -435,8 +449,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="8"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="8" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
+    <cellStyle name="Bad" xfId="8" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -885,12 +902,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2072084232"/>
-        <c:axId val="2072048008"/>
+        <c:axId val="2145701608"/>
+        <c:axId val="2145708888"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2072084232"/>
+        <c:axId val="2145701608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -931,7 +948,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2072048008"/>
+        <c:crossAx val="2145708888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -941,7 +958,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2072048008"/>
+        <c:axId val="2145708888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -988,7 +1005,7 @@
         <c:spPr>
           <a:ln w="12700"/>
         </c:spPr>
-        <c:crossAx val="2072084232"/>
+        <c:crossAx val="2145701608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1432,12 +1449,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2146294520"/>
-        <c:axId val="-2146288952"/>
+        <c:axId val="2145788760"/>
+        <c:axId val="2145794312"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2146294520"/>
+        <c:axId val="2145788760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1467,7 +1484,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146288952"/>
+        <c:crossAx val="2145794312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1475,7 +1492,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2146288952"/>
+        <c:axId val="2145794312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1518,7 +1535,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146294520"/>
+        <c:crossAx val="2145788760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2067,12 +2084,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2140776840"/>
-        <c:axId val="-2140771320"/>
+        <c:axId val="2145829992"/>
+        <c:axId val="2145835496"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2140776840"/>
+        <c:axId val="2145829992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2102,7 +2119,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140771320"/>
+        <c:crossAx val="2145835496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2111,7 +2128,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2140771320"/>
+        <c:axId val="2145835496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2149,7 +2166,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140776840"/>
+        <c:crossAx val="2145829992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2566,8 +2583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4963,32 +4980,32 @@
       <c r="A44" s="31">
         <v>43</v>
       </c>
-      <c r="B44" s="51" t="s">
+      <c r="B44" s="118" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="51"/>
-      <c r="D44" s="114">
+      <c r="C44" s="118"/>
+      <c r="D44" s="119">
         <v>112.557</v>
       </c>
-      <c r="E44" s="114">
+      <c r="E44" s="119">
         <v>8.3160000000000007</v>
       </c>
-      <c r="F44" s="114">
+      <c r="F44" s="119">
         <v>65.248999999999995</v>
       </c>
-      <c r="G44" s="114">
+      <c r="G44" s="119">
         <v>67.534999999999997</v>
       </c>
-      <c r="H44" s="114">
+      <c r="H44" s="119">
         <v>60.552999999999997</v>
       </c>
-      <c r="I44" s="114">
+      <c r="I44" s="119">
         <v>70.685000000000002</v>
       </c>
-      <c r="J44" s="114">
+      <c r="J44" s="119">
         <v>60.527000000000001</v>
       </c>
-      <c r="K44" s="114">
+      <c r="K44" s="119">
         <v>70.718999999999994</v>
       </c>
       <c r="L44" s="11">
